--- a/BCRPP_QC_R_Excel_Program/BCRPP_QC_Version_1/Data Dictionary/BCRPP_DataDictionary_for_QC_v1.xlsx
+++ b/BCRPP_QC_R_Excel_Program/BCRPP_QC_Version_1/Data Dictionary/BCRPP_DataDictionary_for_QC_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahearntu\Box\BCRP Project\Data Dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mukopadhyays2/Documents/GitHub/data-management/BCRPP_QC_R_Excel_Program/BCRPP_QC_Version_1/Data Dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B23614-5FFA-45E8-9445-5F1E5753D0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6DC8A-8E90-104D-8C79-B8464E845CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{CE3BD24D-3850-45DA-86AD-328FF8AFE053}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="2" xr2:uid="{CE3BD24D-3850-45DA-86AD-328FF8AFE053}"/>
   </bookViews>
   <sheets>
     <sheet name="CORE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="442">
   <si>
     <t>Category</t>
   </si>
@@ -1802,6 +1802,9 @@
   </si>
   <si>
     <t xml:space="preserve">777 - former / nondrinker </t>
+  </si>
+  <si>
+    <t>her2_primary2</t>
   </si>
 </sst>
 </file>
@@ -1884,6 +1887,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1995,9 +1999,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2035,7 +2039,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2141,7 +2145,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2283,7 +2287,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2296,25 +2300,25 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="31.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.1796875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="31.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -2366,7 +2370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26">
+    <row r="4" spans="1:6" ht="30">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15">
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26">
+    <row r="7" spans="1:6" ht="30">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.5">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -2439,7 +2443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78">
+    <row r="13" spans="1:6" ht="90">
       <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
@@ -2509,7 +2513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="39">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
@@ -2523,7 +2527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="26">
+    <row r="16" spans="1:6" ht="30">
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27.5">
+    <row r="17" spans="1:6" ht="32">
       <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
@@ -2568,7 +2572,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="26">
+    <row r="18" spans="1:6" ht="30">
       <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="26">
+    <row r="19" spans="1:6" ht="30">
       <c r="B19" s="4" t="s">
         <v>64</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26">
+    <row r="20" spans="1:6" ht="30">
       <c r="B20" s="4" t="s">
         <v>67</v>
       </c>
@@ -2610,7 +2614,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27.5">
+    <row r="21" spans="1:6" ht="32">
       <c r="B21" s="4" t="s">
         <v>70</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="65">
+    <row r="22" spans="1:6" ht="75">
       <c r="A22" s="7" t="s">
         <v>72</v>
       </c>
@@ -2641,7 +2645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="39">
+    <row r="23" spans="1:6" ht="45">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
         <v>76</v>
@@ -2656,7 +2660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26">
+    <row r="24" spans="1:6" ht="30">
       <c r="B24" s="4" t="s">
         <v>79</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="52">
+    <row r="25" spans="1:6" ht="60">
       <c r="B25" s="4" t="s">
         <v>82</v>
       </c>
@@ -2687,7 +2691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39">
+    <row r="26" spans="1:6" ht="45">
       <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="39">
+    <row r="27" spans="1:6" ht="45">
       <c r="B27" s="4" t="s">
         <v>88</v>
       </c>
@@ -2715,7 +2719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="26">
+    <row r="28" spans="1:6" ht="30">
       <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
@@ -2732,7 +2736,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="39">
+    <row r="29" spans="1:6" ht="45">
       <c r="B29" s="4" t="s">
         <v>93</v>
       </c>
@@ -2746,7 +2750,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="65">
+    <row r="30" spans="1:6" ht="75">
       <c r="B30" s="4" t="s">
         <v>96</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="52">
+    <row r="31" spans="1:6" ht="60">
       <c r="B31" s="4" t="s">
         <v>98</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="39">
+    <row r="32" spans="1:6" ht="45">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -2791,7 +2795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="39">
+    <row r="33" spans="1:6" ht="45">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
         <v>104</v>
@@ -2806,7 +2810,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26">
+    <row r="34" spans="1:6" ht="30">
       <c r="B34" s="4" t="s">
         <v>107</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="39">
+    <row r="35" spans="1:6" ht="45">
       <c r="B35" s="4" t="s">
         <v>110</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="39">
+    <row r="36" spans="1:6" ht="45">
       <c r="B36" s="4" t="s">
         <v>113</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="65">
+    <row r="37" spans="1:6" ht="75">
       <c r="B37" s="4" t="s">
         <v>116</v>
       </c>
@@ -2868,7 +2872,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="39">
+    <row r="38" spans="1:6" ht="45">
       <c r="B38" s="4" t="s">
         <v>119</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="39">
+    <row r="40" spans="1:6" ht="45">
       <c r="B40" s="4" t="s">
         <v>125</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="39">
+    <row r="42" spans="1:6" ht="45">
       <c r="B42" s="4" t="s">
         <v>129</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="39">
+    <row r="45" spans="1:6" ht="45">
       <c r="A45" s="14" t="s">
         <v>135</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="39">
+    <row r="46" spans="1:6" ht="45">
       <c r="B46" s="4" t="s">
         <v>139</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="39">
+    <row r="47" spans="1:6" ht="45">
       <c r="B47" s="4" t="s">
         <v>142</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="26">
+    <row r="48" spans="1:6" ht="30">
       <c r="B48" s="4" t="s">
         <v>145</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="52">
+    <row r="49" spans="1:5" ht="60">
       <c r="B49" s="4" t="s">
         <v>148</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="52">
+    <row r="50" spans="1:5" ht="60">
       <c r="B50" s="4" t="s">
         <v>151</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="52">
+    <row r="51" spans="1:5" ht="60">
       <c r="B51" s="4" t="s">
         <v>154</v>
       </c>
@@ -3081,7 +3085,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="39">
+    <row r="53" spans="1:5" ht="45">
       <c r="B53" s="4" t="s">
         <v>159</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="52">
+    <row r="55" spans="1:5" ht="60">
       <c r="A55" s="14" t="s">
         <v>165</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="52">
+    <row r="56" spans="1:5" ht="60">
       <c r="B56" s="4" t="s">
         <v>169</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="52">
+    <row r="57" spans="1:5" ht="60">
       <c r="B57" s="4" t="s">
         <v>172</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="52">
+    <row r="58" spans="1:5" ht="60">
       <c r="B58" s="4" t="s">
         <v>175</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="52">
+    <row r="59" spans="1:5" ht="60">
       <c r="B59" s="4" t="s">
         <v>178</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="52">
+    <row r="60" spans="1:5" ht="60">
       <c r="B60" s="4" t="s">
         <v>181</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="39">
+    <row r="76" spans="2:5" ht="45">
       <c r="B76" s="4" t="s">
         <v>219</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="39">
+    <row r="78" spans="2:5" ht="45">
       <c r="B78" s="4" t="s">
         <v>225</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="39">
+    <row r="79" spans="2:5" ht="45">
       <c r="B79" s="4" t="s">
         <v>228</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="65">
+    <row r="80" spans="2:5" ht="75">
       <c r="B80" s="4" t="s">
         <v>230</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="52">
+    <row r="81" spans="1:5" ht="60">
       <c r="B81" s="4" t="s">
         <v>233</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="65">
+    <row r="82" spans="1:5" ht="75">
       <c r="B82" s="4" t="s">
         <v>236</v>
       </c>
@@ -3504,7 +3508,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="52">
+    <row r="83" spans="1:5" ht="60">
       <c r="B83" s="4" t="s">
         <v>238</v>
       </c>
@@ -3518,7 +3522,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="65">
+    <row r="84" spans="1:5" ht="75">
       <c r="B84" s="4" t="s">
         <v>240</v>
       </c>
@@ -3532,7 +3536,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="52">
+    <row r="85" spans="1:5" ht="60">
       <c r="B85" s="4" t="s">
         <v>242</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="26">
+    <row r="86" spans="1:5" ht="30">
       <c r="A86" s="7" t="s">
         <v>244</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="26">
+    <row r="87" spans="1:5" ht="30">
       <c r="B87" s="4" t="s">
         <v>248</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="39">
+    <row r="88" spans="1:5" ht="45">
       <c r="A88" s="7" t="s">
         <v>251</v>
       </c>
@@ -3594,7 +3598,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="39">
+    <row r="89" spans="1:5" ht="45">
       <c r="B89" s="4" t="s">
         <v>254</v>
       </c>
@@ -3639,13 +3643,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="53.26953125" customWidth="1"/>
-    <col min="4" max="4" width="38.453125" customWidth="1"/>
-    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3665,7 +3669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.5">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="3" t="s">
         <v>260</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>263</v>
@@ -3697,7 +3701,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>266</v>
@@ -3712,7 +3716,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>269</v>
@@ -3727,7 +3731,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="52">
+    <row r="6" spans="1:5" ht="60">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>272</v>
@@ -3742,7 +3746,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>275</v>
@@ -3757,7 +3761,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>278</v>
@@ -3772,7 +3776,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="52">
+    <row r="9" spans="1:5" ht="60">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>281</v>
@@ -3787,7 +3791,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39">
+    <row r="10" spans="1:5" ht="45">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>284</v>
@@ -3832,7 +3836,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="39.5">
+    <row r="13" spans="1:5" ht="45">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
         <v>293</v>
@@ -3847,7 +3851,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.5">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
         <v>295</v>
@@ -3862,7 +3866,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="17">
       <c r="A15" s="2"/>
       <c r="B15" s="13" t="s">
         <v>299</v>
@@ -3877,7 +3881,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="26.5">
+    <row r="16" spans="1:5" ht="17">
       <c r="A16" s="2"/>
       <c r="B16" s="13" t="s">
         <v>302</v>
@@ -3923,18 +3927,18 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.81640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="26.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3954,7 +3958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="6" t="s">
         <v>307</v>
       </c>
@@ -4016,7 +4020,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39">
+    <row r="6" spans="1:5" ht="45">
       <c r="B6" s="2" t="s">
         <v>319</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="39">
+    <row r="16" spans="1:5" ht="45">
       <c r="B16" s="2" t="s">
         <v>346</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="39">
+    <row r="17" spans="2:5" ht="45">
       <c r="B17" s="2" t="s">
         <v>348</v>
       </c>
@@ -4187,7 +4191,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="39">
+    <row r="18" spans="2:5" ht="45">
       <c r="B18" s="2" t="s">
         <v>350</v>
       </c>
@@ -4301,7 +4305,7 @@
     </row>
     <row r="26" spans="2:5" ht="40.5" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>348</v>
+        <v>441</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>370</v>
@@ -4313,7 +4317,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="39">
+    <row r="27" spans="2:5" ht="45">
       <c r="B27" s="2" t="s">
         <v>371</v>
       </c>
@@ -4357,14 +4361,14 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49.26953125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="49" style="4" customWidth="1"/>
-    <col min="4" max="4" width="51.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="143" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="4"/>
+    <col min="6" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1">
@@ -4464,7 +4468,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="7" t="s">
         <v>393</v>
       </c>
@@ -4481,7 +4485,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="130">
+    <row r="8" spans="1:5" ht="150">
       <c r="A8" s="7" t="s">
         <v>397</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="52">
+    <row r="17" spans="1:5" ht="60">
       <c r="A17" s="7" t="s">
         <v>427</v>
       </c>
